--- a/Exc2/FURPS+.xlsx
+++ b/Exc2/FURPS+.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\PycharmProjects\Yandex\Sprint9\architecture-sprint-9\Exc2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E424955-BD59-49E8-B7AA-C733A97FFE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B3C5D-4B0C-4874-B8BB-F0F185555315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Код</t>
   </si>
@@ -628,28 +628,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Высокая доступность систем
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Системы интернет-банка и связанных приложений должны быть доступны 24/7 с уровнем доступности не менее 99,9%. Использовать резервный ЦОД для обеспечения непрерывности работы.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Защита данных
 </t>
     </r>
@@ -662,6 +640,39 @@
       </rPr>
       <t>Все чувствительные данные должны быть защищены от несанкционированного доступа и утечек.</t>
     </r>
+  </si>
+  <si>
+    <t>P+7</t>
+  </si>
+  <si>
+    <t>P+8</t>
+  </si>
+  <si>
+    <t>P+9</t>
+  </si>
+  <si>
+    <t>Использовать Kafka для очередей сообщений</t>
+  </si>
+  <si>
+    <t>Использовать платформы Java, .NET, PHP</t>
+  </si>
+  <si>
+    <t>Использовать существующие базы данных Oracle, MS SQL</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>Системы интернет-банка и связанных приложений должны быть доступны 24/7</t>
+  </si>
+  <si>
+    <t>Уровень доступности должен быть не менее 99,9%</t>
+  </si>
+  <si>
+    <t>Должна быть возможность переключения на резервный ЦОД</t>
   </si>
 </sst>
 </file>
@@ -741,7 +752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -799,21 +810,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -829,6 +895,33 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1058,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75"/>
@@ -1086,302 +1179,348 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" ht="15.75">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="2:8" ht="51">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="51">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="51">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="38.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="38.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="51">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="51">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.75">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="2:8" ht="51">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="51">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="2:8" ht="63.75">
-      <c r="B15" s="10" t="s">
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="2:8" ht="25.5">
+      <c r="B15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="38.25">
+      <c r="B18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="38.25">
-      <c r="B16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
+      <c r="B19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" ht="63.75">
+      <c r="B20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="63.75">
+      <c r="B21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
+      <c r="B22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" ht="63.75">
+      <c r="B23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="51">
+      <c r="B24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="B25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" ht="51">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="51">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="51">
+      <c r="B28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="51">
+      <c r="B29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="51">
+      <c r="B30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="51">
+      <c r="B31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75">
-      <c r="B17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" ht="63.75">
-      <c r="B18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="63.75">
-      <c r="B19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75">
-      <c r="B20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" ht="63.75">
-      <c r="B21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="51">
-      <c r="B22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75">
-      <c r="B23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" ht="51">
-      <c r="A24" s="1"/>
-      <c r="B24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="51">
-      <c r="A25" s="1"/>
-      <c r="B25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="51">
-      <c r="B26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="51">
-      <c r="B27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="51">
-      <c r="B28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="51">
-      <c r="B29" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="C32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C23:D23"/>
+  <mergeCells count="7">
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>